--- a/data/trans_dic/IP11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>9,2%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>4,3%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>10,1%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>9,64%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,77</t>
+          <t>3,36; 8,16</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,12; 15,94</t>
+          <t>6,31; 12,84</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,69</t>
+          <t>2,45; 6,6</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,8</t>
+          <t>2,21; 7,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,5</t>
+          <t>2,64; 7,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,61</t>
+          <t>7,15; 13,73</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,98</t>
+          <t>2,0; 6,06</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,85</t>
+          <t>1,31; 5,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,28</t>
+          <t>3,37; 6,69</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,82</t>
+          <t>7,68; 12,21</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,99</t>
+          <t>2,75; 5,6</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,15</t>
+          <t>2,02; 5,33</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,94%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>7,87%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>6,4%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,64%</t>
+          <t>9,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>4,04%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,92%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,16</t>
+          <t>4,7; 9,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,84</t>
+          <t>9,12; 15,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,6</t>
+          <t>5,38; 10,69</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,81</t>
+          <t>1,62; 4,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,42</t>
+          <t>3,86; 8,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,73</t>
+          <t>4,08; 9,61</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,06</t>
+          <t>2,59; 6,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,34</t>
+          <t>1,69; 4,85</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,69</t>
+          <t>4,72; 8,28</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,21</t>
+          <t>7,44; 11,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,6</t>
+          <t>4,44; 7,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,33</t>
+          <t>1,92; 4,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,84%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>2,21%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,17%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,05%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>5,37%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,34%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,52%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,75%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,75</t>
+          <t>3,08; 10,15</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 10,61</t>
+          <t>3,62; 10,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,13; 6,46</t>
+          <t>0,57; 5,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,52; 4,74</t>
+          <t>0,0; 6,62</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,91; 7,9</t>
+          <t>1,16; 6,81</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,41; 8,16</t>
+          <t>4,54; 11,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,25</t>
+          <t>0,0; 2,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,34; 3,95</t>
+          <t>0,0; 5,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,43; 8,23</t>
+          <t>2,86; 7,48</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,81; 8,35</t>
+          <t>4,67; 9,41</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 3,98</t>
+          <t>0,55; 3,28</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,8; 3,55</t>
+          <t>0,51; 4,56</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>6,33%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,2%</t>
+          <t>10,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>4,42%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>2,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>10,1%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>2,38%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>9,24%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3,8%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
           <t>2,64%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>4,95%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>9,64%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>4,04%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,36; 8,16</t>
+          <t>4,12; 9,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,31; 12,84</t>
+          <t>7,84; 13,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 6,6</t>
+          <t>2,6; 6,71</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,21; 7,81</t>
+          <t>1,25; 5,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>2,64; 7,42</t>
+          <t>3,44; 7,98</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,15; 13,73</t>
+          <t>5,4; 10,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2,0; 6,06</t>
+          <t>1,57; 5,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>1,31; 5,34</t>
+          <t>0,92; 5,07</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3,37; 6,69</t>
+          <t>4,16; 7,51</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,68; 12,21</t>
+          <t>7,42; 11,71</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,75; 5,6</t>
+          <t>2,53; 5,46</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>2,02; 5,33</t>
+          <t>1,5; 4,3</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,94%</t>
+          <t>7,82%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>7,89%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,87%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,41%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>9,37%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>3,29%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,7; 9,77</t>
+          <t>4,53; 12,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,12; 15,94</t>
+          <t>4,96; 12,5</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,38; 10,69</t>
+          <t>3,67; 9,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,8</t>
+          <t>1,81; 7,22</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,86; 8,5</t>
+          <t>4,17; 11,11</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,08; 9,61</t>
+          <t>4,07; 11,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2,59; 6,98</t>
+          <t>1,69; 5,81</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 4,85</t>
+          <t>1,18; 5,93</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,72; 8,28</t>
+          <t>5,08; 10,11</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7,44; 11,82</t>
+          <t>4,99; 9,89</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>4,44; 7,99</t>
+          <t>3,42; 7,32</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,92; 4,15</t>
+          <t>1,81; 5,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,44%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,77%</t>
+          <t>13,04%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,48%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>5,18%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>6,86%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>10,03%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,97%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,08; 8,09</t>
+          <t>3,81; 9,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>8,14; 11,67</t>
+          <t>9,04; 17,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,12; 7,04</t>
+          <t>5,33; 12,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,54</t>
+          <t>1,57; 5,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 6,65</t>
+          <t>2,88; 7,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>5,81; 8,93</t>
+          <t>4,27; 10,43</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2,3; 4,48</t>
+          <t>3,04; 8,92</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,77; 3,83</t>
+          <t>1,61; 5,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 6,9</t>
+          <t>3,93; 7,56</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,41; 9,83</t>
+          <t>7,56; 12,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 5,45</t>
+          <t>4,82; 9,62</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>2,16; 3,77</t>
+          <t>1,93; 4,51</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6,44%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,77%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>5,48%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3,09%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2,63%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>5,83%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4,43%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,87%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>5,06; 8,06</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>7,87; 11,6</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>4,15; 6,93</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>2,11; 4,38</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3,99; 6,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,77; 9,01</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2,29; 4,49</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1,68; 3,94</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>4,91; 6,81</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>7,49; 9,73</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3,59; 5,38</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2,2; 3,73</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 10,15</t>
+          <t>3,0; 9,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,62; 10,2</t>
+          <t>3,56; 9,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,17</t>
+          <t>0,57; 5,1</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 6,62</t>
+          <t>0,0; 7,73</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,16; 6,81</t>
+          <t>1,58; 6,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,54; 11,31</t>
+          <t>4,36; 11,27</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,57</t>
+          <t>0,0; 2,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 5,19</t>
+          <t>0,0; 4,72</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,86; 7,48</t>
+          <t>2,9; 7,24</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,67; 9,41</t>
+          <t>4,77; 9,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,55; 3,28</t>
+          <t>0,51; 3,1</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 4,56</t>
+          <t>0,53; 4,36</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,12; 9,33</t>
+          <t>4,28; 9,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,84; 13,99</t>
+          <t>7,92; 14,08</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 6,71</t>
+          <t>2,53; 6,75</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,25; 5,95</t>
+          <t>1,21; 5,73</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,44; 7,98</t>
+          <t>3,15; 7,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,87</t>
+          <t>5,08; 11,1</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,68</t>
+          <t>1,57; 5,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,92; 5,07</t>
+          <t>0,93; 5,08</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,51</t>
+          <t>4,32; 7,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,42; 11,71</t>
+          <t>7,22; 11,8</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 5,46</t>
+          <t>2,45; 5,44</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,3</t>
+          <t>1,5; 4,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,53; 12,83</t>
+          <t>4,67; 11,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,96; 12,5</t>
+          <t>4,66; 12,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,67; 9,91</t>
+          <t>4,0; 10,14</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 7,22</t>
+          <t>1,78; 7,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,11</t>
+          <t>4,17; 11,64</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,07; 11,09</t>
+          <t>3,95; 10,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,81</t>
+          <t>1,69; 5,86</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,18; 5,93</t>
+          <t>1,19; 5,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,08; 10,11</t>
+          <t>5,0; 10,36</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,89</t>
+          <t>5,04; 10,08</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,42; 7,32</t>
+          <t>3,4; 7,04</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,81; 5,21</t>
+          <t>1,91; 5,47</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,81; 9,47</t>
+          <t>3,92; 9,35</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,04; 17,67</t>
+          <t>9,35; 17,63</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,33; 12,26</t>
+          <t>5,2; 12,23</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,18</t>
+          <t>1,57; 5,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,88; 7,63</t>
+          <t>2,86; 8,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 10,43</t>
+          <t>4,2; 10,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 8,92</t>
+          <t>3,21; 9,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,61; 5,33</t>
+          <t>1,62; 5,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,93; 7,56</t>
+          <t>3,7; 7,41</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,56; 12,7</t>
+          <t>7,75; 12,99</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 9,62</t>
+          <t>5,05; 9,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,51</t>
+          <t>1,93; 4,58</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,06; 8,06</t>
+          <t>4,99; 8,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 11,6</t>
+          <t>8,06; 11,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,15; 6,93</t>
+          <t>4,19; 6,9</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,11; 4,38</t>
+          <t>2,14; 4,56</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,63</t>
+          <t>3,99; 6,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,77; 9,01</t>
+          <t>5,8; 8,85</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,29; 4,49</t>
+          <t>2,36; 4,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,68; 3,94</t>
+          <t>1,73; 3,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,91; 6,81</t>
+          <t>4,98; 6,92</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,49; 9,73</t>
+          <t>7,37; 9,84</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,59; 5,38</t>
+          <t>3,57; 5,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,2; 3,73</t>
+          <t>2,19; 3,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP11-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP11-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,42 +656,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>7,32%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>0,85%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>1,33%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>5,8%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>6,39%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>2,21%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>2,17%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>7,32%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>0,85%</t>
-        </is>
-      </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,77%</t>
         </is>
       </c>
     </row>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,0; 9,78</t>
+          <t>1,21; 7,34</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,56; 9,85</t>
+          <t>4,47; 11,39</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0,57; 5,1</t>
+          <t>0,0; 3,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 7,73</t>
+          <t>0,0; 4,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,58; 6,96</t>
+          <t>3,18; 10,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 11,27</t>
+          <t>3,95; 10,71</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 2,6</t>
+          <t>0,53; 5,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 4,72</t>
+          <t>0,0; 6,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,9; 7,24</t>
+          <t>2,77; 7,05</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4,77; 9,51</t>
+          <t>4,74; 9,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0,51; 3,1</t>
+          <t>0,5; 3,09</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0,53; 4,36</t>
+          <t>0,54; 4,38</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>5,28%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7,82%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3,03%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>2,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>6,33%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>10,5%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>4,42%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>2,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>5,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>7,82%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>3,03%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2,38%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,71%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 9,4</t>
+          <t>3,25; 7,75</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,92; 14,08</t>
+          <t>5,27; 11,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 6,75</t>
+          <t>1,38; 5,61</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,21; 5,73</t>
+          <t>0,93; 4,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,15; 7,67</t>
+          <t>4,09; 9,12</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,08; 11,1</t>
+          <t>7,79; 14,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,64</t>
+          <t>2,78; 6,99</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,93; 5,08</t>
+          <t>1,3; 6,02</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,32; 7,66</t>
+          <t>4,32; 7,62</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,8</t>
+          <t>7,18; 11,48</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>2,45; 5,44</t>
+          <t>2,61; 5,36</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,5; 4,63</t>
+          <t>1,4; 4,84</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>3,32%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>2,81%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>7,82%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>7,89%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>6,46%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,72%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>6,89%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>3,32%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,27%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,67; 11,96</t>
+          <t>3,81; 10,77</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,09</t>
+          <t>4,21; 10,96</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>4,0; 10,14</t>
+          <t>1,46; 5,91</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,78; 7,06</t>
+          <t>1,17; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 11,64</t>
+          <t>4,55; 12,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,95; 10,82</t>
+          <t>4,61; 12,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,69; 5,86</t>
+          <t>3,99; 10,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>1,19; 5,83</t>
+          <t>1,64; 7,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>5,0; 10,36</t>
+          <t>5,09; 10,47</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,04; 10,08</t>
+          <t>5,25; 10,39</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 7,04</t>
+          <t>3,26; 6,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>1,91; 5,47</t>
+          <t>1,86; 5,51</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>6,86%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5,61%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>2,83%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>6,0%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>13,04%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>8,31%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,98%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>4,96%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>6,86%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>5,61%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>3,92; 9,35</t>
+          <t>2,86; 7,98</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>9,35; 17,63</t>
+          <t>4,26; 10,65</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,2; 12,23</t>
+          <t>3,36; 9,46</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,57; 5,41</t>
+          <t>1,31; 4,89</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,86; 8,1</t>
+          <t>3,66; 9,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>4,2; 10,7</t>
+          <t>9,33; 17,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>3,21; 9,39</t>
+          <t>5,16; 12,07</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1,62; 5,16</t>
+          <t>1,42; 5,36</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,41</t>
+          <t>3,94; 7,48</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7,75; 12,99</t>
+          <t>7,58; 12,97</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,05; 9,75</t>
+          <t>4,83; 9,46</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>1,93; 4,58</t>
+          <t>1,91; 4,56</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>7,27%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>6,44%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>9,77%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>5,48%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,09%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>5,18%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>7,27%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,89%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,99; 8,0</t>
+          <t>3,85; 6,65</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,06; 11,75</t>
+          <t>5,81; 8,93</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,19; 6,9</t>
+          <t>2,3; 4,48</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,14; 4,56</t>
+          <t>1,74; 3,81</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,99; 6,74</t>
+          <t>5,08; 8,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,8; 8,85</t>
+          <t>8,14; 11,67</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,36; 4,6</t>
+          <t>4,12; 7,04</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,73; 3,84</t>
+          <t>2,14; 4,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,98; 6,92</t>
+          <t>4,98; 6,9</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7,37; 9,84</t>
+          <t>7,41; 9,83</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,57; 5,36</t>
+          <t>3,64; 5,45</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,19; 3,79</t>
+          <t>2,16; 3,83</t>
         </is>
       </c>
     </row>
